--- a/gantt/gantt.xlsx
+++ b/gantt/gantt.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROBLEMATICA\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B4EC31-4564-4D5C-A596-1E65644ED554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43CAD1B1-16E4-4EBD-A363-646DCFA1B0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9D4BC9B8-D3DD-4AC8-B821-9ED47A3B40C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrama de gantt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+  <si>
+    <t>REED</t>
+  </si>
   <si>
     <t>SOFTWARE DE GESTION PARA S.P.S</t>
   </si>
@@ -48,9 +51,15 @@
     <t>RECURSO</t>
   </si>
   <si>
+    <t>FECHA DE INICIO</t>
+  </si>
+  <si>
     <t>Documentacion basada en investigacion.</t>
   </si>
   <si>
+    <t>FECHA DE FIN</t>
+  </si>
+  <si>
     <t>Analisis de la problematica</t>
   </si>
   <si>
@@ -244,15 +253,6 @@
   </si>
   <si>
     <t>Edgar Eduardo Villalobos Rodriguez</t>
-  </si>
-  <si>
-    <t>David Ismael Espinoza Rodriguez</t>
-  </si>
-  <si>
-    <t>INICIO</t>
-  </si>
-  <si>
-    <t>FIN</t>
   </si>
 </sst>
 </file>
@@ -402,6 +402,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -422,19 +435,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -475,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -489,18 +489,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -510,38 +502,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,9 +530,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -573,15 +540,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,14 +652,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>242526</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>52026</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>82443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>370811</xdr:colOff>
+      <xdr:colOff>717175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>746817</xdr:rowOff>
     </xdr:to>
@@ -648,8 +690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="242526" y="82443"/>
-          <a:ext cx="2448921" cy="664374"/>
+          <a:off x="489055" y="82443"/>
+          <a:ext cx="2458091" cy="664374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,15 +1000,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C7C772-4624-4C63-829A-5CA2B6F21111}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BU30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="35" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
@@ -979,382 +1024,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="42" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
+    </row>
+    <row r="4" spans="1:73" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42" t="s">
+      <c r="H4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42" t="s">
+      <c r="I4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ3" s="42"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="42"/>
-      <c r="AT3" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU3" s="42"/>
-      <c r="AV3" s="42"/>
-      <c r="AW3" s="42"/>
-      <c r="AX3" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="42"/>
-      <c r="BA3" s="42"/>
-      <c r="BB3" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC3" s="42"/>
-      <c r="BD3" s="42"/>
-      <c r="BE3" s="42"/>
-      <c r="BF3" s="42" t="s">
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="28">
+        <v>2</v>
+      </c>
+      <c r="L4" s="28">
+        <v>3</v>
+      </c>
+      <c r="M4" s="28">
+        <v>4</v>
+      </c>
+      <c r="N4" s="28">
+        <v>1</v>
+      </c>
+      <c r="O4" s="28">
+        <v>2</v>
+      </c>
+      <c r="P4" s="28">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>4</v>
+      </c>
+      <c r="R4" s="28">
+        <v>1</v>
+      </c>
+      <c r="S4" s="28">
+        <v>2</v>
+      </c>
+      <c r="T4" s="28">
+        <v>3</v>
+      </c>
+      <c r="U4" s="28">
+        <v>4</v>
+      </c>
+      <c r="V4" s="28">
+        <v>1</v>
+      </c>
+      <c r="W4" s="28">
+        <v>2</v>
+      </c>
+      <c r="X4" s="28">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="28">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="28">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="28">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="28">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="28">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="28">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="28">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="28">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="28">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="28">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="28">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="28">
+        <v>4</v>
+      </c>
+      <c r="AT4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="28">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="28">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="28">
+        <v>4</v>
+      </c>
+      <c r="AX4" s="28">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="28">
+        <v>6</v>
+      </c>
+      <c r="AZ4" s="28">
+        <v>7</v>
+      </c>
+      <c r="BA4" s="28">
+        <v>8</v>
+      </c>
+      <c r="BB4" s="28">
+        <v>9</v>
+      </c>
+      <c r="BC4" s="28">
         <v>10</v>
       </c>
-      <c r="BG3" s="42"/>
-      <c r="BH3" s="42"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="42" t="s">
+      <c r="BD4" s="28">
         <v>11</v>
       </c>
-      <c r="BK3" s="42"/>
-      <c r="BL3" s="42"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="42" t="s">
+      <c r="BE4" s="28">
         <v>12</v>
       </c>
-      <c r="BO3" s="42"/>
-      <c r="BP3" s="42"/>
-      <c r="BQ3" s="42"/>
-      <c r="BR3" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS3" s="42"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="42"/>
-    </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="31">
-        <v>1</v>
-      </c>
-      <c r="K4" s="41">
-        <v>2</v>
-      </c>
-      <c r="L4" s="41">
-        <v>3</v>
-      </c>
-      <c r="M4" s="41">
-        <v>4</v>
-      </c>
-      <c r="N4" s="41">
-        <v>1</v>
-      </c>
-      <c r="O4" s="41">
-        <v>2</v>
-      </c>
-      <c r="P4" s="41">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="41">
-        <v>4</v>
-      </c>
-      <c r="R4" s="41">
-        <v>1</v>
-      </c>
-      <c r="S4" s="41">
-        <v>2</v>
-      </c>
-      <c r="T4" s="41">
-        <v>3</v>
-      </c>
-      <c r="U4" s="41">
-        <v>4</v>
-      </c>
-      <c r="V4" s="41">
-        <v>1</v>
-      </c>
-      <c r="W4" s="41">
-        <v>2</v>
-      </c>
-      <c r="X4" s="41">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="41">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="41">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="41">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="41">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="41">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="41">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="41">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="41">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="41">
-        <v>4</v>
-      </c>
-      <c r="AH4" s="41">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="41">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="41">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="41">
-        <v>4</v>
-      </c>
-      <c r="AL4" s="41">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="41">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="41">
-        <v>3</v>
-      </c>
-      <c r="AO4" s="41">
-        <v>4</v>
-      </c>
-      <c r="AP4" s="41">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="41">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="41">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="41">
-        <v>4</v>
-      </c>
-      <c r="AT4" s="41">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="41">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="41">
-        <v>3</v>
-      </c>
-      <c r="AW4" s="41">
-        <v>4</v>
-      </c>
-      <c r="AX4" s="41">
-        <v>5</v>
-      </c>
-      <c r="AY4" s="41">
-        <v>6</v>
-      </c>
-      <c r="AZ4" s="41">
-        <v>7</v>
-      </c>
-      <c r="BA4" s="41">
-        <v>8</v>
-      </c>
-      <c r="BB4" s="41">
-        <v>9</v>
-      </c>
-      <c r="BC4" s="41">
-        <v>10</v>
-      </c>
-      <c r="BD4" s="41">
-        <v>11</v>
-      </c>
-      <c r="BE4" s="41">
-        <v>12</v>
-      </c>
-      <c r="BF4" s="41">
+      <c r="BF4" s="28">
         <v>13</v>
       </c>
-      <c r="BG4" s="41">
+      <c r="BG4" s="28">
         <v>14</v>
       </c>
-      <c r="BH4" s="41">
+      <c r="BH4" s="28">
         <v>15</v>
       </c>
-      <c r="BI4" s="41">
+      <c r="BI4" s="28">
         <v>16</v>
       </c>
-      <c r="BJ4" s="41">
+      <c r="BJ4" s="28">
         <v>17</v>
       </c>
-      <c r="BK4" s="41">
+      <c r="BK4" s="28">
         <v>18</v>
       </c>
-      <c r="BL4" s="41">
+      <c r="BL4" s="28">
         <v>19</v>
       </c>
-      <c r="BM4" s="41">
+      <c r="BM4" s="28">
         <v>20</v>
       </c>
-      <c r="BN4" s="41">
+      <c r="BN4" s="28">
         <v>21</v>
       </c>
-      <c r="BO4" s="41">
+      <c r="BO4" s="28">
         <v>22</v>
       </c>
-      <c r="BP4" s="41">
+      <c r="BP4" s="28">
         <v>23</v>
       </c>
-      <c r="BQ4" s="41">
+      <c r="BQ4" s="28">
         <v>24</v>
       </c>
-      <c r="BR4" s="41">
+      <c r="BR4" s="28">
         <v>25</v>
       </c>
-      <c r="BS4" s="41">
+      <c r="BS4" s="28">
         <v>26</v>
       </c>
-      <c r="BT4" s="41">
+      <c r="BT4" s="28">
         <v>27</v>
       </c>
-      <c r="BU4" s="41">
+      <c r="BU4" s="28">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="37">
         <v>1</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="E5" s="55">
         <v>44367</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="55">
         <v>44373</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="14"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1418,31 +1465,31 @@
       <c r="BU5" s="2"/>
     </row>
     <row r="6" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="B6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="56">
         <v>44374</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="56">
         <v>44377</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="2"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -1505,31 +1552,31 @@
       <c r="BU6" s="2"/>
     </row>
     <row r="7" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="38">
         <v>1.2</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="56">
         <v>44374</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="56">
         <v>44377</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1592,31 +1639,31 @@
       <c r="BU7" s="2"/>
     </row>
     <row r="8" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="38">
         <v>1.3</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="B8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="56">
         <v>44374</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="56">
         <v>44377</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1679,32 +1726,32 @@
       <c r="BU8" s="2"/>
     </row>
     <row r="9" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="39">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="B9" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="57">
         <v>44378</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="56">
         <v>44387</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="15"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1766,32 +1813,32 @@
       <c r="BU9" s="2"/>
     </row>
     <row r="10" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="39">
         <v>2.1</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="B10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="56">
         <v>44378</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="56">
         <v>44387</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="8"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="15"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1853,32 +1900,32 @@
       <c r="BU10" s="2"/>
     </row>
     <row r="11" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="B11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="56">
         <v>44378</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="56">
         <v>44387</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="8"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="15"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1939,34 +1986,34 @@
       <c r="BT11" s="2"/>
       <c r="BU11" s="2"/>
     </row>
-    <row r="12" spans="1:73" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+    <row r="12" spans="1:73" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>3</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="B12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="56">
         <v>44388</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="56">
         <v>44394</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="16"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -2026,34 +2073,34 @@
       <c r="BT12" s="2"/>
       <c r="BU12" s="2"/>
     </row>
-    <row r="13" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+    <row r="13" spans="1:73" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
         <v>3.1</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="B13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="56">
         <v>44388</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="56">
         <v>44394</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="16"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -2114,28 +2161,28 @@
       <c r="BU13" s="2"/>
     </row>
     <row r="14" spans="1:73" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="41">
         <v>4</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="56">
         <v>44395</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="56">
         <v>44408</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2201,28 +2248,28 @@
       <c r="BU14" s="2"/>
     </row>
     <row r="15" spans="1:73" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="B15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="56">
         <v>44409</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="56">
         <v>44541</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2287,29 +2334,29 @@
       <c r="BT15" s="2"/>
       <c r="BU15" s="2"/>
     </row>
-    <row r="16" spans="1:73" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+    <row r="16" spans="1:73" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
         <v>4.2</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="B16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="56">
         <v>44521</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="56">
         <v>44541</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2374,28 +2421,28 @@
       <c r="BU16" s="2"/>
     </row>
     <row r="17" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="41">
         <v>4.3</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="B17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="56">
         <v>44543</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="56">
         <v>44205</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2460,29 +2507,29 @@
       <c r="BT17" s="2"/>
       <c r="BU17" s="2"/>
     </row>
-    <row r="18" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+    <row r="18" spans="1:73" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="B18" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="56">
         <v>44206</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="56">
         <v>44219</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2548,28 +2595,28 @@
       <c r="BU18" s="2"/>
     </row>
     <row r="19" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="41">
         <v>4.5</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="B19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="56">
         <v>44220</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="56">
         <v>44275</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2634,29 +2681,29 @@
       <c r="BT19" s="5"/>
       <c r="BU19" s="2"/>
     </row>
-    <row r="20" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+    <row r="20" spans="1:73" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="B20" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="56">
         <v>44276</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="56">
         <v>44295</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2722,28 +2769,28 @@
       <c r="BU20" s="2"/>
     </row>
     <row r="21" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="41">
         <v>4.7</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="B21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="56">
         <v>44296</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="56">
         <v>44323</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -2809,28 +2856,28 @@
       <c r="BU21" s="2"/>
     </row>
     <row r="22" spans="1:73" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="42">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="B22" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="56">
         <v>44324</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="56">
         <v>44386</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2875,14 +2922,14 @@
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
-      <c r="BC22" s="37"/>
-      <c r="BD22" s="37"/>
-      <c r="BE22" s="37"/>
-      <c r="BF22" s="37"/>
-      <c r="BG22" s="37"/>
-      <c r="BH22" s="37"/>
-      <c r="BI22" s="37"/>
-      <c r="BJ22" s="37"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="25"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="25"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
@@ -2896,28 +2943,28 @@
       <c r="BU22" s="2"/>
     </row>
     <row r="23" spans="1:73" ht="120" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="42">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="B23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="56">
         <v>44387</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="56">
         <v>44393</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -2970,7 +3017,7 @@
       <c r="BH23" s="2"/>
       <c r="BI23" s="2"/>
       <c r="BJ23" s="2"/>
-      <c r="BK23" s="37"/>
+      <c r="BK23" s="25"/>
       <c r="BL23" s="2"/>
       <c r="BM23" s="2"/>
       <c r="BN23" s="2"/>
@@ -2983,28 +3030,28 @@
       <c r="BU23" s="2"/>
     </row>
     <row r="24" spans="1:73" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="42">
         <v>5.2</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="B24" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="56">
         <v>44394</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="56">
         <v>44407</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3058,8 +3105,8 @@
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
       <c r="BK24" s="2"/>
-      <c r="BL24" s="37"/>
-      <c r="BM24" s="37"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="25"/>
       <c r="BN24" s="2"/>
       <c r="BO24" s="2"/>
       <c r="BP24" s="2"/>
@@ -3070,28 +3117,28 @@
       <c r="BU24" s="2"/>
     </row>
     <row r="25" spans="1:73" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="43">
         <v>6</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="B25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="56">
         <v>44409</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="56">
         <v>44421</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -3147,8 +3194,8 @@
       <c r="BK25" s="2"/>
       <c r="BL25" s="2"/>
       <c r="BM25" s="2"/>
-      <c r="BN25" s="17"/>
-      <c r="BO25" s="17"/>
+      <c r="BN25" s="15"/>
+      <c r="BO25" s="15"/>
       <c r="BP25" s="2"/>
       <c r="BQ25" s="2"/>
       <c r="BR25" s="2"/>
@@ -3157,28 +3204,28 @@
       <c r="BU25" s="2"/>
     </row>
     <row r="26" spans="1:73" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="23">
+      <c r="A26" s="43">
         <v>6.1</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="B26" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="56">
         <v>44422</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="56">
         <v>44439</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3236,36 +3283,36 @@
       <c r="BM26" s="2"/>
       <c r="BN26" s="2"/>
       <c r="BO26" s="2"/>
-      <c r="BP26" s="17"/>
-      <c r="BQ26" s="17"/>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
       <c r="BR26" s="2"/>
       <c r="BS26" s="2"/>
       <c r="BT26" s="2"/>
       <c r="BU26" s="2"/>
     </row>
     <row r="27" spans="1:73" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="43">
         <v>6.2</v>
       </c>
-      <c r="B27" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="B27" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="56">
         <v>44440</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="56">
         <v>44456</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="8"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="9"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3325,13 +3372,13 @@
       <c r="BO27" s="2"/>
       <c r="BP27" s="2"/>
       <c r="BQ27" s="2"/>
-      <c r="BR27" s="17"/>
-      <c r="BS27" s="17"/>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
       <c r="BT27" s="2"/>
       <c r="BU27" s="2"/>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -3360,13 +3407,9 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
     </row>
     <row r="29" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -3375,33 +3418,29 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
     </row>
     <row r="30" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3410,53 +3449,50 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="BJ3:BM3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="BR3:BU3"/>
-    <mergeCell ref="BB3:BE3"/>
+  <mergeCells count="17">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="AX3:BA3"/>
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AO3"/>
     <mergeCell ref="AP3:AS3"/>
     <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BJ3:BM3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BR3:BU3"/>
+    <mergeCell ref="BB3:BE3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="32" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>